--- a/parallelisme/TP_4/resultats.xlsx
+++ b/parallelisme/TP_4/resultats.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qjoao\Documents\GitHub\Uni3eme\parallelisme\TP_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76D3446A-AB3F-4567-AEB4-2F580F2E28C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC72AEC-B8ED-4508-A5C9-4A9497C40C71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5565" yWindow="2580" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -101,6 +100,2276 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$R$64:$R$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$S$64:$S$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B58C-4279-9873-91C7AA6E36EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1463102831"/>
+        <c:axId val="1463104079"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1463102831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463104079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1463104079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1463102831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$32:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$M$32:$M$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B1E3-4EA2-B4B3-1C1EAC27042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$32:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$N$32:$N$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B1E3-4EA2-B4B3-1C1EAC27042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$L$32:$L$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$O$32:$O$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B1E3-4EA2-B4B3-1C1EAC27042D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1656528783"/>
+        <c:axId val="1661062095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1656528783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1661062095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1661062095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1656528783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{930A8C6C-B6F2-4672-A62E-F5B3F3892AA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>52387</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92520191-E05B-482C-B2DA-2307BD86A5AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -366,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D5:O25"/>
+  <dimension ref="D5:S79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O43" sqref="L32:O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,6 +2700,9 @@
       <c r="K13" s="1">
         <v>0.60555555555555551</v>
       </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -679,8 +2951,305 @@
         <v>3.125E-2</v>
       </c>
     </row>
+    <row r="32" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>10</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <v>15</v>
+      </c>
+      <c r="O33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>3</v>
+      </c>
+      <c r="M34">
+        <v>20</v>
+      </c>
+      <c r="N34">
+        <v>20</v>
+      </c>
+      <c r="O34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>25</v>
+      </c>
+      <c r="N35">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>5</v>
+      </c>
+      <c r="M36">
+        <v>30</v>
+      </c>
+      <c r="N36">
+        <v>22</v>
+      </c>
+      <c r="O36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>6</v>
+      </c>
+      <c r="M37">
+        <v>35</v>
+      </c>
+      <c r="N37">
+        <v>23</v>
+      </c>
+      <c r="O37">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>40</v>
+      </c>
+      <c r="N38">
+        <v>24</v>
+      </c>
+      <c r="O38">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>8</v>
+      </c>
+      <c r="M39">
+        <v>45</v>
+      </c>
+      <c r="N39">
+        <v>25</v>
+      </c>
+      <c r="O39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>9</v>
+      </c>
+      <c r="M40">
+        <v>50</v>
+      </c>
+      <c r="N40">
+        <v>26</v>
+      </c>
+      <c r="O40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>10</v>
+      </c>
+      <c r="M41">
+        <v>55</v>
+      </c>
+      <c r="N41">
+        <v>27</v>
+      </c>
+      <c r="O41">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>11</v>
+      </c>
+      <c r="M42">
+        <v>60</v>
+      </c>
+      <c r="N42">
+        <v>28</v>
+      </c>
+      <c r="O42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="12:15" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>12</v>
+      </c>
+      <c r="M43">
+        <v>65</v>
+      </c>
+      <c r="N43">
+        <v>28</v>
+      </c>
+      <c r="O43">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R64">
+        <v>1</v>
+      </c>
+      <c r="S64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R65">
+        <v>2</v>
+      </c>
+      <c r="S65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R66">
+        <v>3</v>
+      </c>
+      <c r="S66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R67">
+        <v>4</v>
+      </c>
+      <c r="S67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R68">
+        <v>5</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R69">
+        <v>6</v>
+      </c>
+      <c r="S69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R70">
+        <v>7</v>
+      </c>
+      <c r="S70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R71">
+        <v>8</v>
+      </c>
+      <c r="S71">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R72">
+        <v>6</v>
+      </c>
+      <c r="S72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R73">
+        <v>10</v>
+      </c>
+      <c r="S73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R74">
+        <v>11</v>
+      </c>
+      <c r="S74">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R75">
+        <v>12</v>
+      </c>
+      <c r="S75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R76">
+        <v>3</v>
+      </c>
+      <c r="S76">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R77">
+        <v>14</v>
+      </c>
+      <c r="S77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R78">
+        <v>15</v>
+      </c>
+      <c r="S78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="18:19" x14ac:dyDescent="0.25">
+      <c r="R79">
+        <v>1</v>
+      </c>
+      <c r="S79">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>